--- a/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
+++ b/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="6060" windowWidth="24440" windowHeight="15540" tabRatio="867"/>
+    <workbookView xWindow="-29180" yWindow="2620" windowWidth="24440" windowHeight="15540" tabRatio="867"/>
   </bookViews>
   <sheets>
     <sheet name="리포트샘플" sheetId="19" r:id="rId1"/>
@@ -14088,15 +14088,81 @@
     <xf numFmtId="178" fontId="10" fillId="34" borderId="29" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="46" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="37" borderId="43" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="37" borderId="46" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="62" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="48" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="47" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="181" fontId="11" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="11" fillId="34" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14105,72 +14171,6 @@
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="46" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="43" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="46" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="62" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="48" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="47" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4122">
@@ -18518,8 +18518,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1635985520"/>
-        <c:axId val="-1635983472"/>
+        <c:axId val="-1545807936"/>
+        <c:axId val="-1545805456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18609,11 +18609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1635978832"/>
-        <c:axId val="-1635981152"/>
+        <c:axId val="-1545800496"/>
+        <c:axId val="-1545802976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1635985520"/>
+        <c:axId val="-1545807936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18623,7 +18623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1635983472"/>
+        <c:crossAx val="-1545805456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18631,7 +18631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1635983472"/>
+        <c:axId val="-1545805456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18641,12 +18641,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1635985520"/>
+        <c:crossAx val="-1545807936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1635981152"/>
+        <c:axId val="-1545802976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18656,12 +18656,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1635978832"/>
+        <c:crossAx val="-1545800496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1635978832"/>
+        <c:axId val="-1545800496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18671,7 +18671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1635981152"/>
+        <c:crossAx val="-1545802976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18834,8 +18834,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1626656560"/>
-        <c:axId val="-1626654512"/>
+        <c:axId val="-1587764304"/>
+        <c:axId val="-1587761744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18894,11 +18894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1692529504"/>
-        <c:axId val="-1626652192"/>
+        <c:axId val="-1591767376"/>
+        <c:axId val="-1591769696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1626656560"/>
+        <c:axId val="-1587764304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18908,7 +18908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1626654512"/>
+        <c:crossAx val="-1587761744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18916,7 +18916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1626654512"/>
+        <c:axId val="-1587761744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18926,12 +18926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1626656560"/>
+        <c:crossAx val="-1587764304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1626652192"/>
+        <c:axId val="-1591769696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18941,12 +18941,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1692529504"/>
+        <c:crossAx val="-1591767376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1692529504"/>
+        <c:axId val="-1591767376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18956,7 +18956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1626652192"/>
+        <c:crossAx val="-1591769696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19408,11 +19408,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -19433,70 +19433,70 @@
       <c r="B4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="109"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="113"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="104" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="119"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="113"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="101" t="s">
+      <c r="D7" s="107"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="103"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19505,10 +19505,10 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="114"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19627,24 +19627,24 @@
     </row>
     <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
@@ -19676,10 +19676,10 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="97"/>
+      <c r="C20" s="119"/>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -19826,10 +19826,10 @@
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="94"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="7"/>
       <c r="E34" s="26"/>
       <c r="G34" s="6"/>
@@ -19841,10 +19841,10 @@
       <c r="B36" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="100"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="80" t="s">
         <v>7</v>
       </c>
@@ -19863,13 +19863,13 @@
     </row>
     <row r="37" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="93"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="76"/>
       <c r="F37" s="76"/>
       <c r="G37" s="76"/>
@@ -19881,11 +19881,11 @@
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="92" t="s">
+      <c r="B38" s="118"/>
+      <c r="C38" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="93"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="78"/>
       <c r="F38" s="78"/>
       <c r="G38" s="78"/>
@@ -19897,10 +19897,10 @@
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="98"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="75">
         <f>C60</f>
         <v>0</v>
@@ -19939,10 +19939,10 @@
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="94"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -20128,10 +20128,10 @@
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
-      <c r="B58" s="94" t="s">
+      <c r="B58" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="94"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="7"/>
       <c r="E58" s="26"/>
       <c r="G58" s="6"/>
@@ -20505,6 +20505,12 @@
     <sortCondition descending="1" ref="F36:F140"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="F7:H7"/>
@@ -20519,14 +20525,8 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -20543,9 +20543,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>

--- a/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
+++ b/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
@@ -200,14 +200,6 @@
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t>ROAS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROAS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
@@ -266,6 +258,14 @@
   <si>
     <t>◇ 광고영역별 요약</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14088,6 +14088,21 @@
     <xf numFmtId="178" fontId="10" fillId="34" borderId="29" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="34" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14152,21 +14167,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="34" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18518,8 +18518,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1545807936"/>
-        <c:axId val="-1545805456"/>
+        <c:axId val="-1549831408"/>
+        <c:axId val="-1620145552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18533,7 +18533,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ROAS</c:v>
+                  <c:v>ROI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18609,11 +18609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1545800496"/>
-        <c:axId val="-1545802976"/>
+        <c:axId val="-1592271584"/>
+        <c:axId val="-1592273904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1545807936"/>
+        <c:axId val="-1549831408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18623,7 +18623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1545805456"/>
+        <c:crossAx val="-1620145552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18631,7 +18631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1545805456"/>
+        <c:axId val="-1620145552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18641,12 +18641,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1545807936"/>
+        <c:crossAx val="-1549831408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1545802976"/>
+        <c:axId val="-1592273904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18656,12 +18656,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1545800496"/>
+        <c:crossAx val="-1592271584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1545800496"/>
+        <c:axId val="-1592271584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18671,7 +18671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1545802976"/>
+        <c:crossAx val="-1592273904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18834,8 +18834,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1587764304"/>
-        <c:axId val="-1587761744"/>
+        <c:axId val="-1588357120"/>
+        <c:axId val="-1591996960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18849,7 +18849,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ROAS</c:v>
+                  <c:v>ROI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18894,11 +18894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1591767376"/>
-        <c:axId val="-1591769696"/>
+        <c:axId val="-1591992320"/>
+        <c:axId val="-1591994640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1587764304"/>
+        <c:axId val="-1588357120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18908,7 +18908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1587761744"/>
+        <c:crossAx val="-1591996960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18916,7 +18916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1587761744"/>
+        <c:axId val="-1591996960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18926,12 +18926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1587764304"/>
+        <c:crossAx val="-1588357120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1591769696"/>
+        <c:axId val="-1591994640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18941,12 +18941,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1591767376"/>
+        <c:crossAx val="-1591992320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1591767376"/>
+        <c:axId val="-1591992320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18956,7 +18956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1591769696"/>
+        <c:crossAx val="-1591994640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19408,11 +19408,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -19433,70 +19433,70 @@
       <c r="B4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="105"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="115"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="102" t="s">
-        <v>46</v>
+      <c r="C5" s="107" t="s">
+        <v>44</v>
       </c>
-      <c r="D5" s="103"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="113"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="102" t="s">
-        <v>47</v>
+      <c r="C6" s="107" t="s">
+        <v>45</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="98" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="111" t="s">
+      <c r="F6" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="95" t="s">
+      <c r="D7" s="112"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19505,10 +19505,10 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="114"/>
+      <c r="C9" s="92"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19530,7 +19530,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G11" s="68"/>
       <c r="H11" s="15"/>
@@ -19538,7 +19538,7 @@
     <row r="12" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="34">
         <v>96008</v>
@@ -19559,7 +19559,7 @@
     <row r="13" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="36">
         <v>83831</v>
@@ -19627,24 +19627,24 @@
     </row>
     <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
@@ -19826,10 +19826,10 @@
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="114" t="s">
-        <v>55</v>
+      <c r="B34" s="92" t="s">
+        <v>53</v>
       </c>
-      <c r="C34" s="114"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="7"/>
       <c r="E34" s="26"/>
       <c r="G34" s="6"/>
@@ -19839,12 +19839,12 @@
     <row r="35" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="94"/>
+      <c r="D36" s="99"/>
       <c r="E36" s="80" t="s">
         <v>7</v>
       </c>
@@ -19863,13 +19863,13 @@
     </row>
     <row r="37" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="115" t="s">
+      <c r="B37" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="116"/>
+      <c r="C37" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="94"/>
       <c r="E37" s="76"/>
       <c r="F37" s="76"/>
       <c r="G37" s="76"/>
@@ -19881,11 +19881,11 @@
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="115" t="s">
-        <v>52</v>
+      <c r="B38" s="96"/>
+      <c r="C38" s="93" t="s">
+        <v>50</v>
       </c>
-      <c r="D38" s="116"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="78"/>
       <c r="F38" s="78"/>
       <c r="G38" s="78"/>
@@ -19897,10 +19897,10 @@
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="92" t="s">
-        <v>50</v>
+      <c r="B39" s="97" t="s">
+        <v>48</v>
       </c>
-      <c r="C39" s="92"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="75">
         <f>C60</f>
         <v>0</v>
@@ -19939,10 +19939,10 @@
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="114"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -20128,10 +20128,10 @@
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="114"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="7"/>
       <c r="E58" s="26"/>
       <c r="G58" s="6"/>
@@ -20167,7 +20167,7 @@
     <row r="60" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C60" s="63">
         <f>SUM(C61:C67)</f>
@@ -20335,7 +20335,7 @@
     <row r="72" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C72" s="45"/>
       <c r="D72" s="45"/>
@@ -20348,7 +20348,7 @@
     <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -20361,7 +20361,7 @@
     <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -20373,7 +20373,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -20385,7 +20385,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -20397,7 +20397,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -20410,7 +20410,7 @@
     <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -20423,7 +20423,7 @@
     <row r="79" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -20436,7 +20436,7 @@
     <row r="80" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -20449,7 +20449,7 @@
     <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -20462,7 +20462,7 @@
     <row r="82" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -20475,7 +20475,7 @@
     <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C83" s="48"/>
       <c r="D83" s="48"/>
@@ -20505,14 +20505,8 @@
     <sortCondition descending="1" ref="F36:F140"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="B2:D2"/>
@@ -20525,8 +20519,14 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -20564,7 +20564,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
+++ b/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="-29180" yWindow="2620" windowWidth="24440" windowHeight="15540" tabRatio="867"/>
   </bookViews>
   <sheets>
-    <sheet name="리포트샘플" sheetId="19" r:id="rId1"/>
+    <sheet name="리포트" sheetId="19" r:id="rId1"/>
     <sheet name="상품별_그래프" sheetId="22" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">리포트샘플!$B$59:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">리포트!$B$59:$I$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">상품별_그래프!$A$1:$D$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">리포트샘플!$A$1:$I$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">리포트!$A$1:$I$86</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -14088,9 +14088,69 @@
     <xf numFmtId="178" fontId="10" fillId="34" borderId="29" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="46" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="37" borderId="43" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="37" borderId="46" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="62" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="48" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="47" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="11" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14111,66 +14171,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="46" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="43" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="46" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="62" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="48" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="47" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4122">
@@ -18348,7 +18348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>리포트샘플!$C$11</c:f>
+              <c:f>리포트!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18390,7 +18390,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>리포트샘플!$B$12:$B$13</c:f>
+              <c:f>리포트!$B$12:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -18404,7 +18404,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>리포트샘플!$C$12:$C$13</c:f>
+              <c:f>리포트!$C$12:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
                 <c:ptCount val="2"/>
@@ -18423,7 +18423,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>리포트샘플!$D$11</c:f>
+              <c:f>리포트!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18481,7 +18481,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>리포트샘플!$B$12:$B$13</c:f>
+              <c:f>리포트!$B$12:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -18495,7 +18495,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>리포트샘플!$D$12:$D$13</c:f>
+              <c:f>리포트!$D$12:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
                 <c:ptCount val="2"/>
@@ -18518,8 +18518,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1549831408"/>
-        <c:axId val="-1620145552"/>
+        <c:axId val="-1126218224"/>
+        <c:axId val="-1040953856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18529,7 +18529,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>리포트샘플!$F$11</c:f>
+              <c:f>리포트!$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18570,7 +18570,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>리포트샘플!$B$12:$B$13</c:f>
+              <c:f>리포트!$B$12:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -18584,7 +18584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>리포트샘플!$F$12:$F$13</c:f>
+              <c:f>리포트!$F$12:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -18609,11 +18609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1592271584"/>
-        <c:axId val="-1592273904"/>
+        <c:axId val="-1040757280"/>
+        <c:axId val="-1040846000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1549831408"/>
+        <c:axId val="-1126218224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18623,7 +18623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1620145552"/>
+        <c:crossAx val="-1040953856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18631,7 +18631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1620145552"/>
+        <c:axId val="-1040953856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18641,12 +18641,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1549831408"/>
+        <c:crossAx val="-1126218224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1592273904"/>
+        <c:axId val="-1040846000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18656,12 +18656,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1592271584"/>
+        <c:crossAx val="-1040757280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1592271584"/>
+        <c:axId val="-1040757280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18671,7 +18671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1592273904"/>
+        <c:crossAx val="-1040846000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18834,8 +18834,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1588357120"/>
-        <c:axId val="-1591996960"/>
+        <c:axId val="-1016596592"/>
+        <c:axId val="-1016000432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18894,11 +18894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1591992320"/>
-        <c:axId val="-1591994640"/>
+        <c:axId val="-1015995792"/>
+        <c:axId val="-1015998112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1588357120"/>
+        <c:axId val="-1016596592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18908,7 +18908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1591996960"/>
+        <c:crossAx val="-1016000432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18916,7 +18916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1591996960"/>
+        <c:axId val="-1016000432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18926,12 +18926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1588357120"/>
+        <c:crossAx val="-1016596592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1591994640"/>
+        <c:axId val="-1015998112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18941,12 +18941,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1591992320"/>
+        <c:crossAx val="-1015995792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1591992320"/>
+        <c:axId val="-1015995792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18956,7 +18956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1591994640"/>
+        <c:crossAx val="-1015998112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18966,7 +18966,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19408,11 +19407,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -19433,70 +19432,70 @@
       <c r="B4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="115"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="108"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="112"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="103" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="118"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="100" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19505,10 +19504,10 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="93"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19627,24 +19626,24 @@
     </row>
     <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
@@ -19676,10 +19675,10 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="119"/>
+      <c r="C20" s="92"/>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -19826,10 +19825,10 @@
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="92"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="7"/>
       <c r="E34" s="26"/>
       <c r="G34" s="6"/>
@@ -19841,10 +19840,10 @@
       <c r="B36" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="99"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="80" t="s">
         <v>7</v>
       </c>
@@ -19863,13 +19862,13 @@
     </row>
     <row r="37" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="94"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="76"/>
       <c r="F37" s="76"/>
       <c r="G37" s="76"/>
@@ -19881,11 +19880,11 @@
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="93" t="s">
+      <c r="B38" s="116"/>
+      <c r="C38" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="94"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="78"/>
       <c r="F38" s="78"/>
       <c r="G38" s="78"/>
@@ -19897,10 +19896,10 @@
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="97"/>
+      <c r="C39" s="117"/>
       <c r="D39" s="75">
         <f>C60</f>
         <v>0</v>
@@ -19939,10 +19938,10 @@
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="92"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -20128,10 +20127,10 @@
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="92"/>
+      <c r="C58" s="93"/>
       <c r="D58" s="7"/>
       <c r="E58" s="26"/>
       <c r="G58" s="6"/>
@@ -20505,6 +20504,14 @@
     <sortCondition descending="1" ref="F36:F140"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F7:H7"/>
@@ -20519,14 +20526,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
+++ b/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29180" yWindow="2620" windowWidth="24440" windowHeight="15540" tabRatio="867"/>
+    <workbookView xWindow="-22200" yWindow="1380" windowWidth="21600" windowHeight="22240" tabRatio="867"/>
   </bookViews>
   <sheets>
     <sheet name="리포트" sheetId="19" r:id="rId1"/>
-    <sheet name="상품별_그래프" sheetId="22" r:id="rId2"/>
+    <sheet name="상품별_raw" sheetId="22" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">리포트!$B$59:$I$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">상품별_그래프!$A$1:$D$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">리포트!$A$1:$I$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">리포트!$B$60:$H$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">상품별_raw!$A$1:$D$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">리포트!$A$1:$I$67</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>광고비</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -55,19 +55,15 @@
   </si>
   <si>
     <t>상품번호</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>광고상품 거래액</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>광고낙찰건수</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>*전시일 기준 리포트이며, 낙찰기준 데이터와는 상이할 수 있습니다.</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>광고비</t>
@@ -75,7 +71,7 @@
   </si>
   <si>
     <t>월별</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>광고비</t>
@@ -99,7 +95,7 @@
   </si>
   <si>
     <t>광고명</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>◇ 상품번호별 광고 요약</t>
@@ -114,16 +110,12 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>*ROI(Return on investment)?</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>전월 대비</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>SUMMARY</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Client ID</t>
@@ -147,39 +139,6 @@
     <t>Contact point</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기간 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2017년 02월 01일 ~ 2017년 02월 28일</t>
-    </r>
-  </si>
-  <si>
-    <t>한승훈 팀장</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T : (031)698-3192 / M : 010-9538-0070</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E-mail: shhan@gluonkorea.com     Fax : (070)8230-5270</t>
-  </si>
-  <si>
     <t xml:space="preserve">◇ 월별 집행 요약 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -188,52 +147,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>광고비 투입에 대한 효과를 수치적으로 나타낸 것으로 투자 수익율을 뜻함. 광고에 사용한 비용(광고비용) 대비 광고를 통해 구매전환된 상품거래액(광고상품거래액) 계산</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <t>ROAS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>********</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>11번가</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">＃review </t>
-    <phoneticPr fontId="64" type="noConversion"/>
-  </si>
-  <si>
-    <t>＃plan</t>
-    <phoneticPr fontId="64" type="noConversion"/>
-  </si>
-  <si>
-    <t>＃광고 진행 추천 상품번호</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>*** 담당님</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>가구/DIY</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <t>ROAS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TOTAL</t>
@@ -241,11 +160,11 @@
   </si>
   <si>
     <t>전시</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>HOT</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>광고영역</t>
@@ -253,35 +172,42 @@
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>◇ 광고영역별 요약</t>
+    <t>◇ 광고영역별 광고 요약</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ROI</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>PPC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ROI</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t xml:space="preserve">＃review </t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>＃plan</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>＃광고 진행 추천 상품번호</t>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="#,##0_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,21 +473,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1F497D"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -836,14 +747,6 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -1062,7 +965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1264,17 +1167,6 @@
       <right style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </top>
@@ -1718,6 +1610,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1915,16 +1831,16 @@
     <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1985,7 +1901,7 @@
     <xf numFmtId="0" fontId="29" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
@@ -1999,12 +1915,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2253,11 +2169,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2270,10 +2186,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
@@ -2372,7 +2288,7 @@
     <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2405,21 +2321,21 @@
     <xf numFmtId="0" fontId="29" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7577,13 +7493,13 @@
     <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -9271,11 +9187,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9300,8 +9216,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9332,8 +9248,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9346,18 +9262,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -12566,22 +12482,22 @@
     <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -13428,17 +13344,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13467,17 +13383,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13502,13 +13418,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13522,10 +13438,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13539,16 +13455,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -13560,66 +13476,66 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13628,10 +13544,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13640,10 +13556,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13652,10 +13568,10 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13664,10 +13580,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13676,10 +13592,10 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13688,13 +13604,13 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13706,7 +13622,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13718,7 +13634,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13735,25 +13651,25 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -13811,7 +13727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13821,14 +13737,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -13848,166 +13758,130 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="60" fillId="34" borderId="0" xfId="1774" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="34" borderId="0" xfId="1774" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="34" borderId="0" xfId="4098" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="31" fillId="34" borderId="0" xfId="4098" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="33" fillId="34" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="4011" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="4011" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="62" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="60" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="59" fillId="0" borderId="23" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="57" fillId="0" borderId="22" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="59" fillId="0" borderId="24" xfId="1774" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="57" fillId="0" borderId="23" xfId="1774" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="34" borderId="16" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="57" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="34" borderId="12" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="41" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="0" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="43" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="38" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="39" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="31" fillId="38" borderId="14" xfId="4098" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="31" fillId="38" borderId="15" xfId="4098" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="38" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="34" borderId="13" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="34" borderId="16" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="34" borderId="17" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="57" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="34" borderId="22" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="42" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="0" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="44" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="39" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="40" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="31" fillId="38" borderId="14" xfId="4098" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="31" fillId="38" borderId="15" xfId="4098" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="38" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="60" fillId="38" borderId="27" xfId="1774" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="58" fillId="38" borderId="26" xfId="1774" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="30" fillId="34" borderId="13" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -14025,29 +13899,32 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="49" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="34" borderId="50" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="51" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="33" fillId="38" borderId="51" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="33" fillId="38" borderId="52" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="38" borderId="25" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="38" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="34" borderId="25" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="34" borderId="26" xfId="1774" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="34" borderId="52" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="38" borderId="26" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="38" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="34" borderId="26" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="60" fillId="34" borderId="27" xfId="1774" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="34" borderId="53" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14055,13 +13932,7 @@
     <xf numFmtId="0" fontId="11" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14070,107 +13941,143 @@
     <xf numFmtId="0" fontId="31" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="50" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="49" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="38" borderId="12" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="38" borderId="12" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="38" borderId="13" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="38" borderId="13" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="30" fillId="38" borderId="13" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="34" borderId="29" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="58" fillId="34" borderId="26" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="58" fillId="38" borderId="26" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="57" fillId="0" borderId="23" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="46" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="43" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="37" borderId="46" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="62" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="48" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="47" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="34" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="34" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="42" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="45" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="60" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="38" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="47" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="46" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="38" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="34" borderId="56" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="34" borderId="28" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4122">
@@ -18383,24 +18290,18 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>리포트!$B$12:$B$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1월</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2월</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -18408,12 +18309,6 @@
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>96008.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83831.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18474,24 +18369,18 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>리포트!$B$12:$B$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1월</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2월</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -18499,12 +18388,6 @@
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.692E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4578E6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18518,8 +18401,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1126218224"/>
-        <c:axId val="-1040953856"/>
+        <c:axId val="-1021120624"/>
+        <c:axId val="-1021118992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18533,7 +18416,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ROI</c:v>
+                  <c:v>ROAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18569,18 +18452,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>리포트!$B$12:$B$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1월</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2월</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -18589,10 +18467,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28.03933005582868</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.17603273252138</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18609,11 +18487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1040757280"/>
-        <c:axId val="-1040846000"/>
+        <c:axId val="-1021114352"/>
+        <c:axId val="-1021116672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1126218224"/>
+        <c:axId val="-1021120624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18623,7 +18501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1040953856"/>
+        <c:crossAx val="-1021118992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18631,7 +18509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1040953856"/>
+        <c:axId val="-1021118992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18641,14 +18519,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1126218224"/>
+        <c:crossAx val="-1021120624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1040846000"/>
+        <c:axId val="-1021116672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -18656,12 +18535,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1040757280"/>
+        <c:crossAx val="-1021114352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1040757280"/>
+        <c:axId val="-1021114352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18671,7 +18550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1040846000"/>
+        <c:crossAx val="-1021116672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18729,7 +18608,7 @@
           <c:x val="0.0901869482952817"/>
           <c:y val="0.0606598133566637"/>
           <c:w val="0.7191196528246"/>
-          <c:h val="0.665398804316138"/>
+          <c:h val="0.777320918826752"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -18741,7 +18620,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>상품별_그래프!$C$1</c:f>
+              <c:f>상품별_raw!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18761,22 +18640,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>상품별_그래프!$A$2:$A$8</c:f>
+              <c:f>상품별_raw!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>상품별_그래프!$C$2:$C$8</c:f>
+              <c:f>상품별_raw!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18786,7 +18662,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>상품별_그래프!$B$1</c:f>
+              <c:f>상품별_raw!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18803,24 +18679,42 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>상품별_그래프!$A$2:$A$8</c:f>
+              <c:f>상품별_raw!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>상품별_그래프!$B$2:$B$8</c:f>
+              <c:f>상품별_raw!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18834,8 +18728,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1016596592"/>
-        <c:axId val="-1016000432"/>
+        <c:axId val="-979795824"/>
+        <c:axId val="-979793504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18845,11 +18739,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>상품별_그래프!$D$1</c:f>
+              <c:f>상품별_raw!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ROI</c:v>
+                  <c:v>ROAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18863,19 +18757,19 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>상품별_그래프!$A$2:$A$8</c:f>
+              <c:f>상품별_raw!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>상품별_그래프!$D$2:$D$8</c:f>
+              <c:f>상품별_raw!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -18894,11 +18788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1015995792"/>
-        <c:axId val="-1015998112"/>
+        <c:axId val="-979788864"/>
+        <c:axId val="-979791184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1016596592"/>
+        <c:axId val="-979795824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18908,7 +18802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1016000432"/>
+        <c:crossAx val="-979793504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18916,22 +18810,22 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1016000432"/>
+        <c:axId val="-979793504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1016596592"/>
+        <c:crossAx val="-979795824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1015998112"/>
+        <c:axId val="-979791184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18941,12 +18835,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1015995792"/>
+        <c:crossAx val="-979788864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1015995792"/>
+        <c:axId val="-979788864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18956,7 +18850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1015998112"/>
+        <c:crossAx val="-979791184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18966,6 +18860,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19388,115 +19283,99 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="9" customWidth="1"/>
-    <col min="4" max="6" width="21.1640625" style="9" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="9" style="9" hidden="1" customWidth="1"/>
-    <col min="13" max="19" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="9" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19" style="7" customWidth="1"/>
+    <col min="4" max="6" width="21.1640625" style="7" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="7" customWidth="1"/>
+    <col min="11" max="12" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="19" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="7" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="99" t="s">
-        <v>35</v>
+      <c r="B2" s="101" t="s">
+        <v>29</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="57" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="10"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="10"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
@@ -19504,1018 +19383,867 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
-        <v>34</v>
+      <c r="B9" s="87" t="s">
+        <v>28</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="H9" s="13"/>
+      <c r="C9" s="87"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="83" t="s">
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="D11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="E11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="F11" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="52">
+        <f>IFERROR(D12/C12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="52">
+        <f>IFERROR(D13/C13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="72">
+        <f>C13-C12</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="72">
+        <f>D13-D12</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="73">
+        <f>E13-E12</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="74">
+        <f>F13-F12</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="1:9" s="9" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="85" t="s">
-        <v>54</v>
+      <c r="C15" s="46">
+        <f>SUM(C12:C13)</f>
+        <v>0</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="15"/>
+      <c r="D15" s="46">
+        <f>SUM(D12:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <f>SUM(E12:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="53">
+        <f>IFERROR(D15/C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="12"/>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="71" t="s">
-        <v>47</v>
+    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="102" t="s">
+        <v>7</v>
       </c>
-      <c r="C12" s="34">
-        <v>96008</v>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="90" t="s">
+        <v>4</v>
       </c>
-      <c r="D12" s="34">
-        <v>2692000</v>
+      <c r="C20" s="90"/>
+    </row>
+    <row r="21" spans="1:9" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" s="9" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="87" t="s">
+        <v>37</v>
       </c>
-      <c r="E12" s="35">
-        <v>4022899</v>
+      <c r="C35" s="87"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="17"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="65" t="s">
+        <v>36</v>
       </c>
-      <c r="F12" s="66">
-        <f>IFERROR(D12/C12,0)</f>
-        <v>28.039330055828682</v>
+      <c r="C36" s="94" t="s">
+        <v>15</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="36">
-        <v>83831</v>
-      </c>
-      <c r="D13" s="36">
-        <v>4457800</v>
-      </c>
-      <c r="E13" s="37">
-        <v>6707499</v>
-      </c>
-      <c r="F13" s="66">
-        <f>IFERROR(D13/C13,0)</f>
-        <v>53.176032732521385</v>
-      </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="87">
-        <f>C13-C12</f>
-        <v>-12177</v>
-      </c>
-      <c r="D14" s="87">
-        <f>D13-D12</f>
-        <v>1765800</v>
-      </c>
-      <c r="E14" s="88">
-        <f>E13-E12</f>
-        <v>2684600</v>
-      </c>
-      <c r="F14" s="89">
-        <f>F13-F12</f>
-        <v>25.136702676692703</v>
-      </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="60">
-        <f>SUM(C12:C13)</f>
-        <v>179839</v>
-      </c>
-      <c r="D15" s="60">
-        <f>SUM(D12:D13)</f>
-        <v>7149800</v>
-      </c>
-      <c r="E15" s="61">
-        <f>SUM(E12:E13)</f>
-        <v>10730398</v>
-      </c>
-      <c r="F15" s="67">
-        <f>IFERROR(D15/C15,0)</f>
-        <v>39.756671244835658</v>
-      </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="100" t="s">
+      <c r="D36" s="95"/>
+      <c r="E36" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="92"/>
-    </row>
-    <row r="21" spans="1:9" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="26"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="80" t="s">
+      <c r="F36" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="80" t="s">
+      <c r="G36" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I36" s="81" t="s">
+      <c r="H36" s="67" t="s">
         <v>3</v>
       </c>
+      <c r="I36" s="67" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="115" t="s">
-        <v>51</v>
+    <row r="37" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="88" t="s">
+        <v>35</v>
       </c>
-      <c r="C37" s="113" t="s">
-        <v>49</v>
+      <c r="C37" s="91" t="s">
+        <v>33</v>
       </c>
-      <c r="D37" s="114"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="77">
-        <f>IFERROR(H37/G37,0)</f>
+      <c r="D37" s="92"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="63">
+        <f>IFERROR(G37/F37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="80">
+        <f>IFERROR(E37/G37, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="113" t="s">
-        <v>50</v>
+    <row r="38" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="91" t="s">
+        <v>34</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="77">
-        <f>IFERROR(H38/G38,0)</f>
+      <c r="D38" s="92"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="63">
+        <f>IFERROR(G38/F38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="80">
+        <f>IFERROR(E38/G38, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="117" t="s">
-        <v>48</v>
+    <row r="39" spans="1:9" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="93" t="s">
+        <v>32</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="75">
-        <f>C60</f>
+      <c r="C39" s="93"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60">
+        <f t="shared" ref="E39:G39" si="0">SUM(E37:E38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="74">
-        <f>SUM(E37:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="74">
-        <f t="shared" ref="F39:H39" si="0">SUM(F37:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="74">
+      <c r="F39" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="74">
+      <c r="G39" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="65">
-        <f t="shared" ref="I39" si="1">IFERROR(H39/G39,0)</f>
+      <c r="H39" s="51">
+        <f t="shared" ref="H39" si="1">IFERROR(G39/F39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="81">
+        <f>IFERROR(E39/G39, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+    <row r="40" spans="1:9" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="93" t="s">
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="26"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="4"/>
     </row>
-    <row r="59" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="79" t="s">
+    <row r="42" spans="1:9" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" s="9" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="87"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="17"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="82" t="s">
+      <c r="C60" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="80" t="s">
-        <v>16</v>
+      <c r="D60" s="66" t="s">
+        <v>15</v>
       </c>
-      <c r="E59" s="80" t="s">
-        <v>7</v>
+      <c r="E60" s="66" t="s">
+        <v>8</v>
       </c>
-      <c r="F59" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="80" t="s">
+      <c r="F60" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H59" s="80" t="s">
+      <c r="G60" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I59" s="81" t="s">
+      <c r="H60" s="67" t="s">
         <v>3</v>
       </c>
+      <c r="I60" s="67" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="63">
-        <f>SUM(C61:C67)</f>
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21">
+        <f t="shared" ref="H61:H63" si="2">IFERROR(G61/F61,0)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="63">
-        <f>SUM(E61:E67)</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="63">
-        <f>SUM(F61:F67)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="63">
-        <f>SUM(G61:G67)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="63">
-        <f>SUM(H61:H67)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="65">
-        <f>IFERROR(H60/G60,0)</f>
+      <c r="I61" s="82">
+        <f>IFERROR(E61/G61, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="90"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30">
-        <f t="shared" ref="I61:I67" si="2">IFERROR(H61/G61,0)</f>
+    <row r="62" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="82">
+        <f>IFERROR(E62/G62, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="32"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30">
+    <row r="63" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="49">
+        <f>SUM(C61:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="50"/>
+      <c r="E63" s="49">
+        <f>SUM(E61:E62)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="49">
+        <f>SUM(F61:F62)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="49">
+        <f>SUM(G61:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="32"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="30">
-        <f t="shared" si="2"/>
+      <c r="I63" s="81">
+        <f>IFERROR(E63/G63,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="32"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="27" t="s">
+        <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="32"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
-      <c r="I65" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="I65" s="29"/>
+    </row>
+    <row r="66" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="30" t="s">
+        <v>39</v>
       </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="35"/>
     </row>
-    <row r="66" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="32"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="44"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="36"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="44"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="36"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="44"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="36"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="44"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="37"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="44"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="37"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="32" t="s">
+        <v>40</v>
       </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="36"/>
     </row>
-    <row r="67" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="32"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="44"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="36"/>
     </row>
-    <row r="68" spans="1:9" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="20"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="44"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="36"/>
     </row>
-    <row r="69" spans="1:9" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="44"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="36"/>
     </row>
-    <row r="70" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-    </row>
-    <row r="71" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="44" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="49"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="36"/>
     </row>
-    <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="50"/>
-    </row>
-    <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="50"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="51"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="50"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="50"/>
-    </row>
-    <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="50"/>
-    </row>
-    <row r="79" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="50"/>
-    </row>
-    <row r="80" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="50"/>
-    </row>
-    <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="50"/>
-    </row>
-    <row r="82" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="50"/>
-    </row>
-    <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="52"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="4"/>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="45"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="38"/>
     </row>
   </sheetData>
   <sortState ref="B36:I140">
     <sortCondition ref="B36:B140"/>
-    <sortCondition descending="1" ref="F36:F140"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:D17"/>
@@ -20526,8 +20254,20 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -20540,80 +20280,80 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
+      <c r="A1" s="22" t="s">
+        <v>18</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>15</v>
+      <c r="B1" s="22" t="s">
+        <v>14</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>55</v>
+      <c r="D1" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="24">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24">
-        <v>0</v>
-      </c>
-      <c r="D2" s="38">
+      <c r="A2" s="78"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="25">
         <f>IFERROR(B2/C2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="38"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="38"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="16"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="16"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="16"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="16"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="79"/>
+      <c r="D10" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
@@ -20621,7 +20361,8 @@
       <sortCondition descending="1" ref="B7"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
+++ b/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>광고비</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -121,15 +121,6 @@
     <t>Client ID</t>
   </si>
   <si>
-    <t>Client Manager</t>
-  </si>
-  <si>
-    <t>Category of business</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>Running time</t>
   </si>
   <si>
@@ -192,6 +183,14 @@
   </si>
   <si>
     <t>＃광고 진행 추천 상품번호</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체명</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자명</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
@@ -13989,9 +13988,78 @@
     <xf numFmtId="10" fontId="32" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="34" borderId="56" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="34" borderId="28" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="60" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="38" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="47" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="46" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="38" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="42" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="45" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="34" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14001,12 +14069,6 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="34" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14015,69 +14077,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="37" borderId="42" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="37" borderId="45" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="60" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="38" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="47" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="46" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="38" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="34" borderId="56" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="34" borderId="28" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4122">
@@ -18401,8 +18400,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1021120624"/>
-        <c:axId val="-1021118992"/>
+        <c:axId val="-974727440"/>
+        <c:axId val="-974490448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18487,11 +18486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1021114352"/>
-        <c:axId val="-1021116672"/>
+        <c:axId val="-974492752"/>
+        <c:axId val="-974488128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1021120624"/>
+        <c:axId val="-974727440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18501,7 +18500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1021118992"/>
+        <c:crossAx val="-974490448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18509,7 +18508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1021118992"/>
+        <c:axId val="-974490448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18519,12 +18518,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1021120624"/>
+        <c:crossAx val="-974727440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1021116672"/>
+        <c:axId val="-974488128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -18535,12 +18534,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1021114352"/>
+        <c:crossAx val="-974492752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1021114352"/>
+        <c:axId val="-974492752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18550,7 +18549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1021116672"/>
+        <c:crossAx val="-974488128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18728,8 +18727,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-979795824"/>
-        <c:axId val="-979793504"/>
+        <c:axId val="-973407712"/>
+        <c:axId val="-973404736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18788,11 +18787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-979788864"/>
-        <c:axId val="-979791184"/>
+        <c:axId val="-973400096"/>
+        <c:axId val="-973402416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-979795824"/>
+        <c:axId val="-973407712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18802,7 +18801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-979793504"/>
+        <c:crossAx val="-973404736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18810,7 +18809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-979793504"/>
+        <c:axId val="-973404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18820,12 +18819,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-979795824"/>
+        <c:crossAx val="-973407712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-979791184"/>
+        <c:axId val="-973402416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18835,12 +18834,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-979788864"/>
+        <c:crossAx val="-973400096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-979788864"/>
+        <c:axId val="-973400096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18850,7 +18849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-979791184"/>
+        <c:crossAx val="-973402416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19285,7 +19284,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19302,11 +19303,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="101" t="s">
-        <v>29</v>
+      <c r="B2" s="89" t="s">
+        <v>26</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -19327,54 +19328,52 @@
       <c r="B4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="114"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="99" t="s">
-        <v>27</v>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="107" t="s">
+        <v>24</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="114"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19383,10 +19382,10 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
-        <v>28</v>
+      <c r="B9" s="103" t="s">
+        <v>25</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="103"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19408,7 +19407,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="12"/>
@@ -19489,22 +19488,22 @@
     </row>
     <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
@@ -19534,10 +19533,10 @@
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="113"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -19695,10 +19694,10 @@
     </row>
     <row r="35" spans="1:9" s="9" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="87" t="s">
-        <v>37</v>
+      <c r="B35" s="103" t="s">
+        <v>34</v>
       </c>
-      <c r="C35" s="87"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="5"/>
       <c r="E35" s="17"/>
       <c r="G35" s="4"/>
@@ -19707,12 +19706,12 @@
     </row>
     <row r="36" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="95"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="66" t="s">
         <v>8</v>
       </c>
@@ -19726,17 +19725,17 @@
         <v>3</v>
       </c>
       <c r="I36" s="67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="88" t="s">
-        <v>35</v>
+      <c r="B37" s="111" t="s">
+        <v>32</v>
       </c>
-      <c r="C37" s="91" t="s">
-        <v>33</v>
+      <c r="C37" s="109" t="s">
+        <v>30</v>
       </c>
-      <c r="D37" s="92"/>
+      <c r="D37" s="110"/>
       <c r="E37" s="62"/>
       <c r="F37" s="62"/>
       <c r="G37" s="62"/>
@@ -19751,11 +19750,11 @@
     </row>
     <row r="38" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="91" t="s">
-        <v>34</v>
+      <c r="B38" s="112"/>
+      <c r="C38" s="109" t="s">
+        <v>31</v>
       </c>
-      <c r="D38" s="92"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
       <c r="G38" s="64"/>
@@ -19770,10 +19769,10 @@
     </row>
     <row r="39" spans="1:9" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
-      <c r="B39" s="93" t="s">
-        <v>32</v>
+      <c r="B39" s="114" t="s">
+        <v>29</v>
       </c>
-      <c r="C39" s="93"/>
+      <c r="C39" s="114"/>
       <c r="D39" s="61"/>
       <c r="E39" s="60">
         <f t="shared" ref="E39:G39" si="0">SUM(E37:E38)</f>
@@ -19803,10 +19802,10 @@
     </row>
     <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="87"/>
+      <c r="C41" s="103"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -19995,10 +19994,10 @@
     </row>
     <row r="59" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="87"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="5"/>
       <c r="E59" s="17"/>
       <c r="G59" s="4"/>
@@ -20029,13 +20028,13 @@
         <v>3</v>
       </c>
       <c r="I60" s="67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="83"/>
-      <c r="C61" s="115"/>
+      <c r="C61" s="87"/>
       <c r="D61" s="76"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -20052,7 +20051,7 @@
     <row r="62" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="84"/>
-      <c r="C62" s="116"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="23"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -20069,7 +20068,7 @@
     <row r="63" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C63" s="49">
         <f>SUM(C61:C62)</f>
@@ -20115,7 +20114,7 @@
     <row r="66" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C67" s="31"/>
       <c r="D67" s="31"/>
@@ -20177,7 +20176,7 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -20219,7 +20218,7 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -20244,6 +20243,15 @@
     <sortCondition ref="B36:B140"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:D17"/>
@@ -20257,15 +20265,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -20303,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
+++ b/gluonkorea_report/public/xlsxTemplate/11stSellerTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-22200" yWindow="1380" windowWidth="21600" windowHeight="22240" tabRatio="867"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="19760" tabRatio="867"/>
   </bookViews>
   <sheets>
     <sheet name="리포트" sheetId="19" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">리포트!$B$60:$H$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">상품별_raw!$A$1:$D$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">리포트!$A$1:$I$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">리포트!$A$1:$I$66</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -964,7 +964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1304,30 +1304,6 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -13726,7 +13702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13796,9 +13772,6 @@
     <xf numFmtId="0" fontId="31" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="30" fillId="34" borderId="16" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -13808,10 +13781,16 @@
     <xf numFmtId="0" fontId="11" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
@@ -13820,49 +13799,43 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="39" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="0" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="37" borderId="41" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="37" borderId="0" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="36" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="37" borderId="43" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="37" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="37" borderId="38" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="37" borderId="39" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="31" fillId="38" borderId="14" xfId="4098" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -13898,19 +13871,19 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="49" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="47" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="50" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="48" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="33" fillId="38" borderId="51" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="33" fillId="38" borderId="49" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="38" borderId="25" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="38" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="38" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="34" borderId="25" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13919,7 +13892,7 @@
     <xf numFmtId="178" fontId="58" fillId="34" borderId="26" xfId="1774" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="34" borderId="52" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="34" borderId="50" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13931,7 +13904,7 @@
     <xf numFmtId="0" fontId="11" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13940,7 +13913,7 @@
     <xf numFmtId="0" fontId="31" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="49" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="47" xfId="3995" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="30" fillId="38" borderId="12" xfId="4011" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13958,7 +13931,7 @@
     <xf numFmtId="0" fontId="10" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -13976,10 +13949,7 @@
     <xf numFmtId="177" fontId="57" fillId="0" borderId="23" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -13988,11 +13958,35 @@
     <xf numFmtId="10" fontId="32" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="34" borderId="56" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="34" borderId="54" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="34" borderId="28" xfId="4011" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="34" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14000,22 +13994,28 @@
     <xf numFmtId="179" fontId="60" fillId="34" borderId="0" xfId="3995" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="38" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="36" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="37" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="47" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="46" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="36" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="37" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="38" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14024,58 +14024,25 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="39" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="40" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="41" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="42" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="43" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="44" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="40" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="45" xfId="4100" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="37" borderId="42" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="37" borderId="45" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="34" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="43" xfId="4100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18400,8 +18367,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-974727440"/>
-        <c:axId val="-974490448"/>
+        <c:axId val="-350205184"/>
+        <c:axId val="-350203136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18486,11 +18453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-974492752"/>
-        <c:axId val="-974488128"/>
+        <c:axId val="-350198496"/>
+        <c:axId val="-350200816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-974727440"/>
+        <c:axId val="-350205184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18500,7 +18467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-974490448"/>
+        <c:crossAx val="-350203136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18508,7 +18475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-974490448"/>
+        <c:axId val="-350203136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18518,12 +18485,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-974727440"/>
+        <c:crossAx val="-350205184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-974488128"/>
+        <c:axId val="-350200816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -18534,12 +18501,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-974492752"/>
+        <c:crossAx val="-350198496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-974492752"/>
+        <c:axId val="-350198496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18549,7 +18516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-974488128"/>
+        <c:crossAx val="-350200816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18727,8 +18694,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-973407712"/>
-        <c:axId val="-973404736"/>
+        <c:axId val="-437741664"/>
+        <c:axId val="-437739344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18787,11 +18754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-973400096"/>
-        <c:axId val="-973402416"/>
+        <c:axId val="-437523536"/>
+        <c:axId val="-437525856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-973407712"/>
+        <c:axId val="-437741664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18801,7 +18768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-973404736"/>
+        <c:crossAx val="-437739344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18809,7 +18776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-973404736"/>
+        <c:axId val="-437739344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18819,12 +18786,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-973407712"/>
+        <c:crossAx val="-437741664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-973402416"/>
+        <c:axId val="-437525856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18834,12 +18801,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-973400096"/>
+        <c:crossAx val="-437523536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-973400096"/>
+        <c:axId val="-437523536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18849,7 +18816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-973402416"/>
+        <c:crossAx val="-437525856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19282,10 +19249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -19303,11 +19270,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -19325,55 +19292,55 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="43" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="40" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="107" t="s">
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19382,10 +19349,10 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="103"/>
+      <c r="C9" s="92"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19394,116 +19361,116 @@
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="52">
+      <c r="F12" s="51">
         <f>IFERROR(D12/C12,0)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="55"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="52">
+      <c r="B13" s="57"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="51">
         <f>IFERROR(D13/C13,0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="85"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="71">
         <f>C13-C12</f>
         <v>0</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="71">
         <f>D13-D12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="72">
         <f>E13-E12</f>
         <v>0</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="73">
         <f>F13-F12</f>
         <v>0</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="75"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="45">
         <f>SUM(C12:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="45">
         <f>SUM(D12:D13)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <f>SUM(E12:E13)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="52">
         <f>IFERROR(D15/C15,0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
@@ -19533,10 +19500,10 @@
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="113"/>
+      <c r="C20" s="86"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -19694,10 +19661,10 @@
     </row>
     <row r="35" spans="1:9" s="9" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="103"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="5"/>
       <c r="E35" s="17"/>
       <c r="G35" s="4"/>
@@ -19705,92 +19672,92 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="66" t="s">
+      <c r="D36" s="91"/>
+      <c r="E36" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="66" t="s">
+      <c r="F36" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="67" t="s">
+      <c r="I36" s="66" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="63">
+      <c r="D37" s="88"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="62">
         <f>IFERROR(G37/F37,0)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="80">
+      <c r="I37" s="79">
         <f>IFERROR(E37/G37, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="109" t="s">
+      <c r="B38" s="94"/>
+      <c r="C38" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="63">
+      <c r="D38" s="88"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="62">
         <f>IFERROR(G38/F38,0)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="80">
+      <c r="I38" s="79">
         <f>IFERROR(E38/G38, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60">
+      <c r="C39" s="89"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="59">
         <f t="shared" ref="E39:G39" si="0">SUM(E37:E38)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="51">
+      <c r="H39" s="50">
         <f t="shared" ref="H39" si="1">IFERROR(G39/F39,0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="81">
+      <c r="I39" s="80">
         <f>IFERROR(E39/G39, 0)</f>
         <v>0</v>
       </c>
@@ -19802,15 +19769,15 @@
     </row>
     <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="103"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="86"/>
+      <c r="H41" s="84"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -19994,10 +19961,10 @@
     </row>
     <row r="59" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="103"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="5"/>
       <c r="E59" s="17"/>
       <c r="G59" s="4"/>
@@ -20006,250 +19973,226 @@
     </row>
     <row r="60" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="77" t="s">
+      <c r="C60" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="66" t="s">
+      <c r="D60" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="66" t="s">
+      <c r="F60" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G60" s="66" t="s">
+      <c r="G60" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H60" s="67" t="s">
+      <c r="H60" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I60" s="67" t="s">
+      <c r="I60" s="66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="76"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="75"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="21">
-        <f t="shared" ref="H61:H63" si="2">IFERROR(G61/F61,0)</f>
+        <f t="shared" ref="H61:H62" si="2">IFERROR(G61/F61,0)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="82">
+      <c r="I61" s="81">
         <f>IFERROR(E61/G61, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21">
+      <c r="B62" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="48">
+        <f>SUM(C61:C61)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="49"/>
+      <c r="E62" s="48">
+        <f>SUM(E61:E61)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="48">
+        <f>SUM(F61:F61)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="48">
+        <f>SUM(G61:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="82">
-        <f>IFERROR(E62/G62, 0)</f>
+      <c r="I62" s="80">
+        <f>IFERROR(E62/G62,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
-      <c r="B63" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="49">
-        <f>SUM(C61:C62)</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="49">
-        <f>SUM(E61:E62)</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="49">
-        <f>SUM(F61:F62)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="49">
-        <f>SUM(G61:G62)</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="81">
-        <f>IFERROR(E63/G63,0)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="27" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
     </row>
-    <row r="66" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="30" t="s">
+    <row r="65" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="34"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="43"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="35"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="44"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="35"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="44"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="36"/>
+      <c r="I69" s="35"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="44"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="36"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="44"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="37"/>
+      <c r="I71" s="36"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="44"/>
+      <c r="B72" s="31" t="s">
+        <v>37</v>
+      </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="37"/>
+      <c r="I72" s="35"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B73" s="43"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="36"/>
+      <c r="I73" s="35"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="44"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="36"/>
+      <c r="I74" s="35"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="44"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="35"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="44"/>
+      <c r="B76" s="31" t="s">
+        <v>38</v>
+      </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="35"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="36"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="45"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="38"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="37"/>
     </row>
   </sheetData>
   <sortState ref="B36:I140">
     <sortCondition ref="B36:B140"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B2:D2"/>
@@ -20265,6 +20208,13 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -20301,58 +20251,58 @@
       <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <f>IFERROR(B2/C2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="16"/>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="16"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="16"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="16"/>
-      <c r="D8" s="25"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="78"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="78"/>
+      <c r="D10" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
